--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43303,6 +43303,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43338,6 +43338,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43373,6 +43373,43 @@
         <v>900</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43484,6 +43484,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43556,6 +43556,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43630,6 +43630,76 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43700,6 +43700,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,78 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,41 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86126,6 +86126,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86161,6 +86161,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86196,6 +86196,41 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2427" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86231,6 +86231,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2428" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86266,6 +86266,43 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86303,6 +86303,43 @@
         </is>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86340,6 +86340,41 @@
         </is>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86375,6 +86375,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>35900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86410,6 +86410,43 @@
         <v>35900</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86447,6 +86447,41 @@
         </is>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86482,6 +86482,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86517,6 +86517,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2436" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86554,6 +86554,41 @@
         </is>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86589,6 +86589,43 @@
         <v>13200</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5088.xlsx
+++ b/data/5088.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86626,6 +86626,43 @@
         </is>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>APEX</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
